--- a/Datas/Pawns.xlsx
+++ b/Datas/Pawns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\301410195\Desktop\SunHeSLGConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC573B-FBBC-4035-A728-5B37D8DB57D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE06C35-0852-49B2-B442-0774B947F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pawn" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>BaseAttr</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>Cap</t>
   </si>
   <si>
     <t>##type</t>
@@ -60,9 +54,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>SLG.BasicStats</t>
   </si>
   <si>
@@ -97,13 +88,40 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>ClassID</t>
-  </si>
-  <si>
     <t>TestSoilder</t>
   </si>
   <si>
     <t>this is a test pawn.</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>triggerDistance</t>
+  </si>
+  <si>
+    <t>大地图碰撞半径</t>
+  </si>
+  <si>
+    <t>SLG.PawnMapEvent</t>
+  </si>
+  <si>
+    <t>mapEvent</t>
+  </si>
+  <si>
+    <t>地图上做什么</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>MainHero</t>
+  </si>
+  <si>
+    <t>this is a the hero</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -151,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,72 +196,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -257,60 +209,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -593,19 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,241 +547,152 @@
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="3"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>1001</v>
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="F1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
     <mergeCell ref="F2:O2"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="Y2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datas/Pawns.xlsx
+++ b/Datas/Pawns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE06C35-0852-49B2-B442-0774B947F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5737A968-4C91-4FFD-AE14-5A9BFA85CFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>BaseAttr</t>
   </si>
   <si>
     <t>##type</t>
@@ -54,43 +51,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>SLG.BasicStats</t>
-  </si>
-  <si>
-    <t>HPMax</t>
-  </si>
-  <si>
-    <t>Str</t>
-  </si>
-  <si>
-    <t>Mag</t>
-  </si>
-  <si>
-    <t>Dex</t>
-  </si>
-  <si>
-    <t>Spd</t>
-  </si>
-  <si>
-    <t>Luk</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
-    <t>Bld</t>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>TestSoilder</t>
-  </si>
-  <si>
     <t>this is a test pawn.</t>
   </si>
   <si>
@@ -115,20 +79,41 @@
     <t>Combat</t>
   </si>
   <si>
-    <t>MainHero</t>
-  </si>
-  <si>
-    <t>this is a the hero</t>
-  </si>
-  <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>Pawn3</t>
+  </si>
+  <si>
+    <t>Pawn4</t>
+  </si>
+  <si>
+    <t>Pawn5</t>
+  </si>
+  <si>
+    <t>Pawn6</t>
+  </si>
+  <si>
+    <t>baseAttrId</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Attribute表里面找</t>
+  </si>
+  <si>
+    <t>Pawn1</t>
+  </si>
+  <si>
+    <t>Pawn2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +131,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,43 +183,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,20 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,155 +513,161 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0.8</v>
       </c>
-      <c r="P6" t="s">
-        <v>27</v>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datas/Pawns.xlsx
+++ b/Datas/Pawns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5737A968-4C91-4FFD-AE14-5A9BFA85CFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCAF91-E802-450E-B623-5215A7B09C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,18 +82,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Pawn3</t>
-  </si>
-  <si>
-    <t>Pawn4</t>
-  </si>
-  <si>
-    <t>Pawn5</t>
-  </si>
-  <si>
-    <t>Pawn6</t>
-  </si>
-  <si>
     <t>baseAttrId</t>
   </si>
   <si>
@@ -103,10 +91,22 @@
     <t>Attribute表里面找</t>
   </si>
   <si>
-    <t>Pawn1</t>
-  </si>
-  <si>
-    <t>Pawn2</t>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Cleric</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Merchant</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -539,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>

--- a/Datas/Pawns.xlsx
+++ b/Datas/Pawns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCAF91-E802-450E-B623-5215A7B09C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407BD7F-CEF9-449B-B1E0-41B1CB5597BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pawn" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Merchant</t>
+  </si>
+  <si>
+    <t>Store</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -488,18 +494,18 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -545,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +559,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -570,7 +576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -581,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -590,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -601,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -610,7 +616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -620,11 +626,14 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -634,11 +643,14 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -648,11 +660,14 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -662,8 +677,14 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Pawns.xlsx
+++ b/Datas/Pawns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407BD7F-CEF9-449B-B1E0-41B1CB5597BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0B01A-0F81-4D08-99CE-994D7DA7D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Store</t>
+  </si>
+  <si>
+    <t>Talk</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,6 +669,9 @@
       <c r="F9">
         <v>5</v>
       </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
